--- a/Documentacion/Partes.xlsx
+++ b/Documentacion/Partes.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ulises\Desktop\CNC_plasma_DIMEC\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B671271E-BFAF-40B3-ACFC-D3CC40DF9207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCC114A-DB80-4C94-B22B-5C46F572D793}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="electronica" sheetId="1" r:id="rId1"/>
-    <sheet name="mecanica" sheetId="2" r:id="rId2"/>
+    <sheet name="mecanica" sheetId="2" r:id="rId1"/>
+    <sheet name="electronica" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>Item</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Ubicación</t>
   </si>
   <si>
-    <t>Fuente de poder 20V</t>
-  </si>
-  <si>
     <t>Fuente de poder 12V</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>LINK</t>
   </si>
   <si>
-    <t>Cable 6mm</t>
-  </si>
-  <si>
     <t>Regleta</t>
   </si>
   <si>
@@ -73,42 +67,12 @@
     <t>Canaleta (opcional)</t>
   </si>
   <si>
-    <t>Cable 1,5mm ROJO</t>
-  </si>
-  <si>
-    <t>Cable 1,5mm NEGRO</t>
-  </si>
-  <si>
-    <t>Cable 1,5mm BLANCO</t>
-  </si>
-  <si>
-    <t>Cable 1,5mm VERDE</t>
-  </si>
-  <si>
-    <t>Cable 1,5mm AZUL</t>
-  </si>
-  <si>
-    <t>Cable 1,5mm AMARILLO</t>
-  </si>
-  <si>
     <t>Costo total</t>
   </si>
   <si>
     <t>Costo unidad</t>
   </si>
   <si>
-    <t>Cable 1,5 o 4 mm ROJO</t>
-  </si>
-  <si>
-    <t>Cable 1,5 o 4 mm NEGRO</t>
-  </si>
-  <si>
-    <t>Cable 1,5 o 4 mm VERDE</t>
-  </si>
-  <si>
-    <t>Cable 1,5 o 4 mm AZUL</t>
-  </si>
-  <si>
     <t>4+</t>
   </si>
   <si>
@@ -128,13 +92,112 @@
   </si>
   <si>
     <t>Correa cerrada XXX</t>
+  </si>
+  <si>
+    <t>rodamiento</t>
+  </si>
+  <si>
+    <t>Perno</t>
+  </si>
+  <si>
+    <t>drivers para NEMA 23</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>Falta 1</t>
+  </si>
+  <si>
+    <t>faltan 2</t>
+  </si>
+  <si>
+    <t>Polea dentada grande</t>
+  </si>
+  <si>
+    <t>Polea dentada chica</t>
+  </si>
+  <si>
+    <t>Cremallera eje Y</t>
+  </si>
+  <si>
+    <t>Barra rectangular para cremallera Y</t>
+  </si>
+  <si>
+    <t>Soporte reductora Y (SIDE REDUCTION)</t>
+  </si>
+  <si>
+    <t>Soporte reductora X (SIDE REDUCTION)</t>
+  </si>
+  <si>
+    <t>Proveedor</t>
+  </si>
+  <si>
+    <t>Barra duraluminio xmm polea grande</t>
+  </si>
+  <si>
+    <t>Barra duraluminio xmm polea chica</t>
+  </si>
+  <si>
+    <t>correa dentada pitch cerrada 0.2in</t>
+  </si>
+  <si>
+    <t>Ballscrew SFU1605 250mm eje Z</t>
+  </si>
+  <si>
+    <t>Fuente de poder 24V 480W</t>
+  </si>
+  <si>
+    <t>Motor NEMA 23</t>
+  </si>
+  <si>
+    <t>ruedas para v-slot</t>
+  </si>
+  <si>
+    <t>Afel</t>
+  </si>
+  <si>
+    <t>https://afel.cl/producto/fuente-de-poder-24v-20a-480w/</t>
+  </si>
+  <si>
+    <t>Cable 1,5mm2 ROJO</t>
+  </si>
+  <si>
+    <t>Cable 1,5mm2 NEGRO</t>
+  </si>
+  <si>
+    <t>Cable 1,5mm2 BLANCO</t>
+  </si>
+  <si>
+    <t>Cable 1,5mm2 VERDE</t>
+  </si>
+  <si>
+    <t>Cable 1,5mm2 AZUL</t>
+  </si>
+  <si>
+    <t>Cable 1,5mm2 AMARILLO</t>
+  </si>
+  <si>
+    <t>Cable 1,5 o 4 mm2 ROJO</t>
+  </si>
+  <si>
+    <t>Cable 1,5 o 4 mm2 NEGRO</t>
+  </si>
+  <si>
+    <t>Cable 1,5 o 4 mm2 VERDE</t>
+  </si>
+  <si>
+    <t>Cable 1,5 o 4 mm2 AZUL</t>
+  </si>
+  <si>
+    <t>Cable 6mm2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +209,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -195,18 +266,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -484,11 +559,467 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A46EA4-DB89-4462-9DDF-383AE86E8485}">
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>58000</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,11 +1028,12 @@
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,10 +1041,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -521,10 +1053,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -533,26 +1068,36 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>32000</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -561,11 +1106,14 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -575,10 +1123,11 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -586,10 +1135,11 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
@@ -599,10 +1149,11 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B8" s="3">
         <v>5</v>
@@ -612,10 +1163,11 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B9" s="3">
         <v>5</v>
@@ -625,10 +1177,11 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B10" s="3">
         <v>5</v>
@@ -638,10 +1191,11 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B11" s="3">
         <v>5</v>
@@ -651,36 +1205,39 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -688,10 +1245,11 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -699,10 +1257,11 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -710,8 +1269,9 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -719,8 +1279,9 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -728,10 +1289,11 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -739,10 +1301,11 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -750,10 +1313,11 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -761,10 +1325,11 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -772,10 +1337,11 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -783,10 +1349,11 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -794,21 +1361,25 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -816,8 +1387,9 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -825,8 +1397,9 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -834,305 +1407,121 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="2">
+        <v>3</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{CD142E30-4D9F-40B8-93C9-DD5C049ED699}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A46EA4-DB89-4462-9DDF-383AE86E8485}">
-  <dimension ref="A1:G28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Documentacion/Partes.xlsx
+++ b/Documentacion/Partes.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ulises\Desktop\CNC_plasma_DIMEC\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA8CA43-6E7B-4C04-9416-CE2CDC9A3F98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDEB2C7-2199-42CB-B29A-63A7C68211BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mecanica" sheetId="2" r:id="rId1"/>
     <sheet name="electronica" sheetId="1" r:id="rId2"/>
+    <sheet name="compras" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="76">
   <si>
     <t>Item</t>
   </si>
@@ -136,39 +137,6 @@
     <t>https://afel.cl/producto/fuente-de-poder-24v-20a-480w/</t>
   </si>
   <si>
-    <t>Cable 1,5mm2 ROJO</t>
-  </si>
-  <si>
-    <t>Cable 1,5mm2 NEGRO</t>
-  </si>
-  <si>
-    <t>Cable 1,5mm2 BLANCO</t>
-  </si>
-  <si>
-    <t>Cable 1,5mm2 VERDE</t>
-  </si>
-  <si>
-    <t>Cable 1,5mm2 AZUL</t>
-  </si>
-  <si>
-    <t>Cable 1,5mm2 AMARILLO</t>
-  </si>
-  <si>
-    <t>Cable 1,5 o 4 mm2 ROJO</t>
-  </si>
-  <si>
-    <t>Cable 1,5 o 4 mm2 NEGRO</t>
-  </si>
-  <si>
-    <t>Cable 1,5 o 4 mm2 VERDE</t>
-  </si>
-  <si>
-    <t>Cable 1,5 o 4 mm2 AZUL</t>
-  </si>
-  <si>
-    <t>Cable 6mm2</t>
-  </si>
-  <si>
     <t>https://www.aliexpress.com/item/32850771769.html?spm=a2g0o.detail.1000023.10.5a022a99dyNeHv</t>
   </si>
   <si>
@@ -211,12 +179,6 @@
     <t>https://www.cimech3d.cl/producto/kit-rueda-delrin-rodamientos-para-perfiles-v-slot/</t>
   </si>
   <si>
-    <t>Faltan?</t>
-  </si>
-  <si>
-    <t>Correa cerrada XL</t>
-  </si>
-  <si>
     <t>Polea chica XL</t>
   </si>
   <si>
@@ -226,10 +188,83 @@
     <t>Normalizado cremallera</t>
   </si>
   <si>
-    <t>https://www.3dparatodos.cl/producto/sensor-de-proximidad-inductivo/</t>
-  </si>
-  <si>
-    <t>3D para todos</t>
+    <t>Final de carrera inductivo</t>
+  </si>
+  <si>
+    <t>https://www.cimech3d.cl/producto/sensor-inductivo-lj12a3-4-z-bx-deteccion-4mm/</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>awg 10 pa los drivers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">awg 14 hasta las fuentes
+</t>
+  </si>
+  <si>
+    <t>awg 10 pa los motores</t>
+  </si>
+  <si>
+    <t>awg 18 pa rriba (alimentaciones etc), señales hasta en 26</t>
+  </si>
+  <si>
+    <t>https://es.aliexpress.com/item/32651221354.html?spm=a2g0o.productlist.0.0.160952abzxc3PQ&amp;algo_pvid=c680959c-b7ff-458b-9373-c0db5de8bb47&amp;algo_expid=c680959c-b7ff-458b-9373-c0db5de8bb47-10&amp;btsid=0b0a556216065092213491439e6072&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_</t>
+  </si>
+  <si>
+    <t>Cable AWG 14 ROJO</t>
+  </si>
+  <si>
+    <t>Cable AWG 14 NEGRO</t>
+  </si>
+  <si>
+    <t>metros</t>
+  </si>
+  <si>
+    <t>Cable AWG 14 triple</t>
+  </si>
+  <si>
+    <t>Cable AWG 14 VERDE/CAFE/AZUL</t>
+  </si>
+  <si>
+    <t>INPUT 220V- input fuentes</t>
+  </si>
+  <si>
+    <t>OUTPUT FUENTES</t>
+  </si>
+  <si>
+    <t>Cable AWG 10 ROJO</t>
+  </si>
+  <si>
+    <t>Cable AWG 10 NEGRO</t>
+  </si>
+  <si>
+    <t>OUTPUT DRIVERS</t>
+  </si>
+  <si>
+    <t>Cable AWG 10 VERDE</t>
+  </si>
+  <si>
+    <t>Cable AWG 10 AZUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> no</t>
+  </si>
+  <si>
+    <t>Hobby</t>
+  </si>
+  <si>
+    <t>SEÑALES</t>
+  </si>
+  <si>
+    <t>AliExpress</t>
+  </si>
+  <si>
+    <t>Correa cerrada 136XL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Proveedor</t>
   </si>
 </sst>
 </file>
@@ -261,7 +296,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,8 +309,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -298,12 +345,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -323,6 +396,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -607,7 +691,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,7 +835,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
@@ -792,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="2"/>
@@ -810,14 +894,14 @@
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -828,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="2"/>
@@ -857,7 +941,7 @@
         <v>10000</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="2"/>
@@ -877,14 +961,14 @@
         <v>5000</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B17" s="5">
         <v>3</v>
@@ -897,14 +981,14 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B18" s="5">
         <v>3</v>
@@ -917,31 +1001,31 @@
         <v>0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B19" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" s="5">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -964,17 +1048,19 @@
         <v>1</v>
       </c>
       <c r="C21" s="5">
-        <v>58000</v>
+        <v>45000</v>
       </c>
       <c r="D21" s="5">
         <f t="shared" si="0"/>
-        <v>58000</v>
+        <v>45000</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F21" s="5"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -995,12 +1081,12 @@
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B23" s="5">
         <v>1</v>
@@ -1013,11 +1099,11 @@
         <v>60000</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1031,7 +1117,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="4" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1109,7 +1195,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D32" s="8">
         <f>SUM(D2:D30)</f>
-        <v>173000</v>
+        <v>145000</v>
       </c>
     </row>
   </sheetData>
@@ -1118,6 +1204,7 @@
     <hyperlink ref="G23" r:id="rId2" display="https://www.aliexpress.com/item/4001196665112.html?spm=a2g0o.productlist.0.0.3f4824ebITGCT2&amp;algo_pvid=82453855-675c-45f9-a819-926de80529dc&amp;algo_expid=82453855-675c-45f9-a819-926de80529dc-5&amp;btsid=0bb0623c16049730416098272e25e3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{76BFD02D-1CB4-42FF-AD3B-62A2E2D3C18E}"/>
     <hyperlink ref="G24" r:id="rId3" display="https://es.aliexpress.com/item/32675566676.html?spm=a2g0o.productlist.0.0.74da77afyVnq27&amp;algo_pvid=50a8d203-12f3-4f40-a6b3-1c024d30a56d&amp;algo_expid=50a8d203-12f3-4f40-a6b3-1c024d30a56d-33&amp;btsid=0bb0624616049729361861771e9ebb&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{6686D927-5FCB-4D51-B406-A65D50020AE0}"/>
     <hyperlink ref="G22" r:id="rId4" xr:uid="{A97663ED-B784-446F-B47E-E2C560070D88}"/>
+    <hyperlink ref="G21" r:id="rId5" display="https://es.aliexpress.com/item/32651221354.html?spm=a2g0o.productlist.0.0.160952abzxc3PQ&amp;algo_pvid=c680959c-b7ff-458b-9373-c0db5de8bb47&amp;algo_expid=c680959c-b7ff-458b-9373-c0db5de8bb47-10&amp;btsid=0b0a556216065092213491439e6072&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{84D0DA26-3A97-4AD7-8EF0-8C6C945133AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1125,24 +1212,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="89.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="89.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1159,16 +1246,13 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1185,19 +1269,16 @@
       <c r="E2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
@@ -1212,17 +1293,14 @@
       <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="5">
-        <v>2</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -1233,21 +1311,20 @@
         <v>32000</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" ref="D4:D37" si="0">B4*C4</f>
+        <f t="shared" ref="D4:D44" si="0">B4*C4</f>
         <v>128000</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1262,17 +1339,16 @@
         <v>9000</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1289,546 +1365,829 @@
       <c r="E6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3790</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" ref="D7" si="1">B7*C7</f>
+        <v>11370</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D8" s="5">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="6">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D9" s="5">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="6">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D10" s="5">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="6">
-        <v>5</v>
-      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D11" s="5">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="6">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D12" s="5">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="6">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B13" s="5"/>
       <c r="C13" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D13" s="5">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="5">
-        <v>4</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D14" s="5">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="5">
-        <v>4</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B15" s="5"/>
       <c r="C15" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D15" s="5">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="5">
-        <v>4</v>
-      </c>
+      <c r="F15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="6"/>
       <c r="C16" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D16" s="5">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="5">
-        <v>4</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D17" s="5">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="5">
-        <v>2</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D18" s="5">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="6"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="6"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="E20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="5">
-        <v>1</v>
-      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="5">
-        <v>3</v>
-      </c>
-      <c r="C27" s="5">
-        <v>3900</v>
-      </c>
-      <c r="D27" s="5">
-        <f t="shared" si="0"/>
-        <v>11700</v>
-      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="5">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C31" s="5">
+        <v>8000</v>
+      </c>
+      <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5">
+        <v>40000</v>
+      </c>
+      <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7">
-        <f>SUM(D2:D37)</f>
-        <v>590700</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7">
+        <f>SUM(D2:D44)</f>
+        <v>542370</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="51" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" xr:uid="{CD142E30-4D9F-40B8-93C9-DD5C049ED699}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{EB30E0D6-6499-4898-AE91-29049E4D9470}"/>
-    <hyperlink ref="H2" r:id="rId3" xr:uid="{CCADE804-38A1-4DC6-BFCD-59B6D7BFFF87}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{D8B80D34-1CE1-4412-9836-F3301C39FFBB}"/>
-    <hyperlink ref="H6" r:id="rId5" xr:uid="{6BAC4C62-E8F0-4EE0-AF6E-861204AC5F93}"/>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{CD142E30-4D9F-40B8-93C9-DD5C049ED699}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{EB30E0D6-6499-4898-AE91-29049E4D9470}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{CCADE804-38A1-4DC6-BFCD-59B6D7BFFF87}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{D8B80D34-1CE1-4412-9836-F3301C39FFBB}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{6BAC4C62-E8F0-4EE0-AF6E-861204AC5F93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC14E26-FEBA-4326-8BF8-35000F403867}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="107.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>58000</v>
+      </c>
+      <c r="D2" s="5">
+        <f>B2*C2</f>
+        <v>58000</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>38000</v>
+      </c>
+      <c r="D3" s="5">
+        <f>B3*C3</f>
+        <v>76000</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>32000</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D9" si="0">B4*C4</f>
+        <v>128000</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>9000</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3790</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>11370</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45000</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>45000</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="15">
+        <f>SUM(D2:D9)</f>
+        <v>352370</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{A4DCC939-01EE-499B-981C-C1C1FBC67427}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{D377F9A5-9CE3-4DB2-933B-8387B2C552F1}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{C1972E76-8ED0-43BA-A3E5-AB28916CC551}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{4FECF715-F623-4C01-A2F8-9DB0861B72A8}"/>
+    <hyperlink ref="G7" r:id="rId5" display="https://es.aliexpress.com/item/32651221354.html?spm=a2g0o.productlist.0.0.160952abzxc3PQ&amp;algo_pvid=c680959c-b7ff-458b-9373-c0db5de8bb47&amp;algo_expid=c680959c-b7ff-458b-9373-c0db5de8bb47-10&amp;btsid=0b0a556216065092213491439e6072&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{21A4CBFF-FF1C-483F-BC2A-84CA0452AABA}"/>
+    <hyperlink ref="G8" r:id="rId6" xr:uid="{2567B19A-A0B0-491C-9221-FD12CB6704EE}"/>
+    <hyperlink ref="G9" r:id="rId7" xr:uid="{7C3E1C67-097D-4EA3-A3D3-7B5FCAE86E74}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+</worksheet>
 </file>
--- a/Documentacion/Partes.xlsx
+++ b/Documentacion/Partes.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ulises\Desktop\CNC_plasma_DIMEC\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDEB2C7-2199-42CB-B29A-63A7C68211BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E32A49-200F-4593-8BC4-2280202CED8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mecanica" sheetId="2" r:id="rId1"/>
     <sheet name="electronica" sheetId="1" r:id="rId2"/>
-    <sheet name="compras" sheetId="3" r:id="rId3"/>
+    <sheet name="compras1" sheetId="3" r:id="rId3"/>
+    <sheet name="compras2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="86">
   <si>
     <t>Item</t>
   </si>
@@ -62,36 +63,18 @@
     <t>LINK</t>
   </si>
   <si>
-    <t>Regleta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riel DIN </t>
-  </si>
-  <si>
     <t>Boton emergencia</t>
   </si>
   <si>
     <t>Final de carrera</t>
   </si>
   <si>
-    <t>Canaleta (opcional)</t>
-  </si>
-  <si>
     <t>Costo total</t>
   </si>
   <si>
     <t>Costo unidad</t>
   </si>
   <si>
-    <t>Borne 1.5</t>
-  </si>
-  <si>
-    <t>Borne 4 o 1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borne </t>
-  </si>
-  <si>
     <t>rodamiento</t>
   </si>
   <si>
@@ -197,19 +180,6 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>awg 10 pa los drivers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">awg 14 hasta las fuentes
-</t>
-  </si>
-  <si>
-    <t>awg 10 pa los motores</t>
-  </si>
-  <si>
-    <t>awg 18 pa rriba (alimentaciones etc), señales hasta en 26</t>
-  </si>
-  <si>
     <t>https://es.aliexpress.com/item/32651221354.html?spm=a2g0o.productlist.0.0.160952abzxc3PQ&amp;algo_pvid=c680959c-b7ff-458b-9373-c0db5de8bb47&amp;algo_expid=c680959c-b7ff-458b-9373-c0db5de8bb47-10&amp;btsid=0b0a556216065092213491439e6072&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_</t>
   </si>
   <si>
@@ -265,6 +235,66 @@
   </si>
   <si>
     <t xml:space="preserve"> Proveedor</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/6495K714/</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/6495K732/</t>
+  </si>
+  <si>
+    <t>Regleta input fuentes AWG 14</t>
+  </si>
+  <si>
+    <t>subtotal=</t>
+  </si>
+  <si>
+    <t>Cable AWG 18 NEGRO</t>
+  </si>
+  <si>
+    <t>Cable AWG 18 ROJO</t>
+  </si>
+  <si>
+    <t>ROLLO 25m</t>
+  </si>
+  <si>
+    <t>Cable AWG 18 BLANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regleta señales </t>
+  </si>
+  <si>
+    <t>Cable AWG 18 VERDE/AZUL</t>
+  </si>
+  <si>
+    <t>EXTRAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL </t>
+  </si>
+  <si>
+    <t>corte laser sinsay</t>
+  </si>
+  <si>
+    <t>Taller Molina</t>
+  </si>
+  <si>
+    <t>Otero/Maquimetal</t>
+  </si>
+  <si>
+    <t>externo</t>
+  </si>
+  <si>
+    <t>Otero</t>
+  </si>
+  <si>
+    <t>FabLab</t>
+  </si>
+  <si>
+    <t>Vergara</t>
+  </si>
+  <si>
+    <t>Pernos Alameda/KIM</t>
   </si>
 </sst>
 </file>
@@ -376,7 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -407,6 +437,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -688,16 +719,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A46EA4-DB89-4462-9DDF-383AE86E8485}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="100.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -708,10 +743,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -728,81 +763,96 @@
         <v>18</v>
       </c>
       <c r="B2" s="5">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5">
-        <f t="shared" ref="D2:D30" si="0">B2*C2</f>
+        <f t="shared" ref="D2:D18" si="0">B2*C2</f>
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="3"/>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="3"/>
+      <c r="E6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5">
@@ -810,14 +860,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -828,383 +880,317 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>10000</v>
+      </c>
       <c r="D10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+        <v>10000</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5">
+        <v>5000</v>
+      </c>
       <c r="D11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
       <c r="D12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
       <c r="D13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="5">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5">
-        <v>10000</v>
-      </c>
-      <c r="D15" s="5">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
       </c>
       <c r="C16" s="5">
-        <v>5000</v>
+        <v>45000</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>45000</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B17" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="5">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="D17" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B18" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" s="5">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="D18" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="5">
-        <v>5</v>
-      </c>
-      <c r="C19" s="5">
-        <v>3000</v>
-      </c>
-      <c r="D19" s="5">
-        <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="5">
+        <v>16</v>
+      </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5">
-        <f t="shared" si="0"/>
+        <f>B20*C20</f>
         <v>0</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="4"/>
+      <c r="E20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="5">
-        <v>1</v>
-      </c>
-      <c r="C21" s="5">
-        <v>45000</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="5">
-        <f t="shared" si="0"/>
-        <v>45000</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="4" t="s">
-        <v>57</v>
-      </c>
+        <f>B21*C21</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="5">
-        <v>4</v>
-      </c>
-      <c r="C22" s="5">
-        <v>2500</v>
-      </c>
-      <c r="D22" s="5">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="5">
-        <v>1</v>
-      </c>
-      <c r="C23" s="5">
-        <v>60000</v>
-      </c>
-      <c r="D23" s="5">
-        <f t="shared" si="0"/>
-        <v>60000</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="2"/>
-    </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D32" s="8">
-        <f>SUM(D2:D30)</f>
+      <c r="D27" s="8">
+        <f>SUM(D2:D25)</f>
         <v>145000</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G19" r:id="rId1" xr:uid="{CCAD8BD5-5A75-4BA1-9E05-D57AC958FFAA}"/>
-    <hyperlink ref="G23" r:id="rId2" display="https://www.aliexpress.com/item/4001196665112.html?spm=a2g0o.productlist.0.0.3f4824ebITGCT2&amp;algo_pvid=82453855-675c-45f9-a819-926de80529dc&amp;algo_expid=82453855-675c-45f9-a819-926de80529dc-5&amp;btsid=0bb0623c16049730416098272e25e3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{76BFD02D-1CB4-42FF-AD3B-62A2E2D3C18E}"/>
-    <hyperlink ref="G24" r:id="rId3" display="https://es.aliexpress.com/item/32675566676.html?spm=a2g0o.productlist.0.0.74da77afyVnq27&amp;algo_pvid=50a8d203-12f3-4f40-a6b3-1c024d30a56d&amp;algo_expid=50a8d203-12f3-4f40-a6b3-1c024d30a56d-33&amp;btsid=0bb0624616049729361861771e9ebb&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{6686D927-5FCB-4D51-B406-A65D50020AE0}"/>
-    <hyperlink ref="G22" r:id="rId4" xr:uid="{A97663ED-B784-446F-B47E-E2C560070D88}"/>
-    <hyperlink ref="G21" r:id="rId5" display="https://es.aliexpress.com/item/32651221354.html?spm=a2g0o.productlist.0.0.160952abzxc3PQ&amp;algo_pvid=c680959c-b7ff-458b-9373-c0db5de8bb47&amp;algo_expid=c680959c-b7ff-458b-9373-c0db5de8bb47-10&amp;btsid=0b0a556216065092213491439e6072&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{84D0DA26-3A97-4AD7-8EF0-8C6C945133AF}"/>
+    <hyperlink ref="G14" r:id="rId1" xr:uid="{CCAD8BD5-5A75-4BA1-9E05-D57AC958FFAA}"/>
+    <hyperlink ref="G18" r:id="rId2" display="https://www.aliexpress.com/item/4001196665112.html?spm=a2g0o.productlist.0.0.3f4824ebITGCT2&amp;algo_pvid=82453855-675c-45f9-a819-926de80529dc&amp;algo_expid=82453855-675c-45f9-a819-926de80529dc-5&amp;btsid=0bb0623c16049730416098272e25e3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{76BFD02D-1CB4-42FF-AD3B-62A2E2D3C18E}"/>
+    <hyperlink ref="G19" r:id="rId3" display="https://es.aliexpress.com/item/32675566676.html?spm=a2g0o.productlist.0.0.74da77afyVnq27&amp;algo_pvid=50a8d203-12f3-4f40-a6b3-1c024d30a56d&amp;algo_expid=50a8d203-12f3-4f40-a6b3-1c024d30a56d-33&amp;btsid=0bb0624616049729361861771e9ebb&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{6686D927-5FCB-4D51-B406-A65D50020AE0}"/>
+    <hyperlink ref="G17" r:id="rId4" xr:uid="{A97663ED-B784-446F-B47E-E2C560070D88}"/>
+    <hyperlink ref="G16" r:id="rId5" display="https://es.aliexpress.com/item/32651221354.html?spm=a2g0o.productlist.0.0.160952abzxc3PQ&amp;algo_pvid=c680959c-b7ff-458b-9373-c0db5de8bb47&amp;algo_expid=c680959c-b7ff-458b-9373-c0db5de8bb47-10&amp;btsid=0b0a556216065092213491439e6072&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{84D0DA26-3A97-4AD7-8EF0-8C6C945133AF}"/>
+    <hyperlink ref="G12" r:id="rId6" xr:uid="{B1865955-4768-48A2-B358-340F58050C01}"/>
+    <hyperlink ref="G13" r:id="rId7" xr:uid="{A166AE50-65B7-4532-90A6-1422A484D93B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1212,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,16 +1223,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
@@ -1267,18 +1253,18 @@
         <v>232000</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
@@ -1291,18 +1277,18 @@
         <v>152000</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B4" s="5">
         <v>4</v>
@@ -1311,17 +1297,17 @@
         <v>32000</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" ref="D4:D44" si="0">B4*C4</f>
+        <f t="shared" ref="D4:D6" si="0">B4*C4</f>
         <v>128000</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1339,13 +1325,13 @@
         <v>9000</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1363,18 +1349,18 @@
         <v>10000</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="5">
         <v>3</v>
@@ -1383,300 +1369,443 @@
         <v>3790</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" ref="D7" si="1">B7*C7</f>
+        <f>B7*C7</f>
         <v>11370</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="12">
+        <f>SUM(D10:D14)</f>
+        <v>20000</v>
+      </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="B10" s="5">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="5">
+        <f>B10*C10</f>
+        <v>5000</v>
+      </c>
       <c r="E10" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="B11" s="5">
+        <v>4</v>
+      </c>
       <c r="C11" s="5">
         <v>500</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5">
+        <f t="shared" ref="D11:D24" si="1">B11*C11</f>
+        <v>2000</v>
+      </c>
       <c r="E11" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="B12" s="5">
+        <v>4</v>
+      </c>
       <c r="C12" s="5">
         <v>500</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
       <c r="E12" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="B13" s="5">
+        <v>4</v>
+      </c>
       <c r="C13" s="5">
         <v>500</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
       <c r="E13" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
+      <c r="A14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>9000</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="1"/>
+        <v>9000</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5">
-        <v>600</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="2"/>
+      <c r="A15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="12">
+        <f>SUM(D16:D17)</f>
+        <v>6000</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="6"/>
+      <c r="A16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="5">
+        <v>5</v>
+      </c>
       <c r="C16" s="5">
         <v>600</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6" t="s">
-        <v>41</v>
+      <c r="D16" s="5">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="A17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="6">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5">
+        <v>600</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="3"/>
+      <c r="A18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="12">
+        <f>SUM(D19:D22)</f>
+        <v>48000</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="B19" s="6">
+        <v>20</v>
+      </c>
+      <c r="C19" s="5">
+        <v>600</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
       <c r="E19" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="B20" s="6">
+        <v>20</v>
+      </c>
+      <c r="C20" s="5">
+        <v>600</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
       <c r="E20" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="6">
+        <v>20</v>
+      </c>
+      <c r="C21" s="5">
+        <v>600</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="5">
+        <v>20</v>
+      </c>
+      <c r="C22" s="5">
+        <v>600</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="6" t="s">
+      <c r="D23" s="12">
+        <f>SUM(D24:D27)</f>
+        <v>42000</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="B24" s="5">
+        <v>25</v>
+      </c>
+      <c r="C24" s="5">
+        <v>600</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="5">
+        <v>25</v>
+      </c>
+      <c r="C25" s="5">
+        <v>600</v>
+      </c>
+      <c r="D25" s="5">
+        <f>B25*C25</f>
+        <v>15000</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="A26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="5">
+        <v>10</v>
+      </c>
+      <c r="C26" s="5">
+        <v>600</v>
+      </c>
+      <c r="D26" s="5">
+        <f>B26*C26</f>
+        <v>6000</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="A27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="5">
+        <v>10</v>
+      </c>
+      <c r="C27" s="5">
+        <v>600</v>
+      </c>
+      <c r="D27" s="5">
+        <f>B27*C27</f>
+        <v>6000</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+        <v>74</v>
+      </c>
+      <c r="B28" s="5">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5">
+        <v>9000</v>
+      </c>
+      <c r="D28" s="5">
+        <f>B28*C28</f>
+        <v>27000</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A29" s="2"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1685,39 +1814,62 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="2"/>
+      <c r="A30" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="12">
+        <f>SUM(D31:D34)</f>
+        <v>49000</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
       <c r="C31" s="5">
-        <v>8000</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+        <v>40000</v>
+      </c>
+      <c r="D31" s="5">
+        <f>B31*C31</f>
+        <v>40000</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="F31" s="5"/>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+      <c r="C32" s="5">
+        <v>9000</v>
+      </c>
+      <c r="D32" s="5">
+        <f>B32*C32</f>
+        <v>9000</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -1735,18 +1887,16 @@
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="4"/>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A35" s="2"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="2"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -1758,24 +1908,15 @@
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="5">
-        <v>1</v>
-      </c>
-      <c r="C37" s="5">
-        <v>40000</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -1836,11 +1977,13 @@
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
@@ -1852,32 +1995,28 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
-      <c r="D47" s="7">
-        <f>SUM(D2:D44)</f>
-        <v>542370</v>
-      </c>
+      <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="51" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>54</v>
-      </c>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="A52" s="9"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
-        <v>55</v>
-      </c>
+      <c r="A53" s="10"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
-        <v>56</v>
-      </c>
+      <c r="A54" s="10"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1896,8 +2035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC14E26-FEBA-4326-8BF8-35000F403867}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1917,16 +2056,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
@@ -1947,18 +2086,18 @@
         <v>58000</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B3" s="5">
         <v>2</v>
@@ -1971,18 +2110,18 @@
         <v>76000</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B4" s="5">
         <v>4</v>
@@ -1995,13 +2134,13 @@
         <v>128000</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2019,18 +2158,18 @@
         <v>9000</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B6" s="5">
         <v>3</v>
@@ -2043,18 +2182,18 @@
         <v>11370</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
@@ -2067,18 +2206,18 @@
         <v>45000</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B8" s="5">
         <v>5</v>
@@ -2091,13 +2230,13 @@
         <v>15000</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2115,13 +2254,13 @@
         <v>10000</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2160,7 +2299,7 @@
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D19" s="15">
         <f>SUM(D2:D9)</f>
@@ -2190,4 +2329,516 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C2E9A8-69FD-4783-A235-3EA3CF357731}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="12">
+        <f>SUM(D3:D7)</f>
+        <v>20000</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="5">
+        <f>B3*C3</f>
+        <v>5000</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="5">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>500</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D17" si="0">B4*C4</f>
+        <v>2000</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>500</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>500</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>9000</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="12">
+        <f>SUM(D9:D10)</f>
+        <v>6000</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>600</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="6">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>600</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="12">
+        <f>SUM(D12:D15)</f>
+        <v>48000</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="6">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5">
+        <v>600</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="6">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5">
+        <v>600</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="6">
+        <v>20</v>
+      </c>
+      <c r="C14" s="5">
+        <v>600</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="5">
+        <v>20</v>
+      </c>
+      <c r="C15" s="5">
+        <v>600</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="12">
+        <f>SUM(D17:D20)</f>
+        <v>42000</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="5">
+        <v>25</v>
+      </c>
+      <c r="C17" s="5">
+        <v>600</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="5">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5">
+        <v>600</v>
+      </c>
+      <c r="D18" s="5">
+        <f>B18*C18</f>
+        <v>15000</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="5">
+        <v>10</v>
+      </c>
+      <c r="C19" s="5">
+        <v>600</v>
+      </c>
+      <c r="D19" s="5">
+        <f>B19*C19</f>
+        <v>6000</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="5">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5">
+        <v>600</v>
+      </c>
+      <c r="D20" s="5">
+        <f>B20*C20</f>
+        <v>6000</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="5">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5">
+        <v>9000</v>
+      </c>
+      <c r="D21" s="5">
+        <f>B21*C21</f>
+        <v>27000</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="12">
+        <f>SUM(D24:D25)</f>
+        <v>49000</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5">
+        <v>40000</v>
+      </c>
+      <c r="D24" s="5">
+        <f>B24*C24</f>
+        <v>40000</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5">
+        <v>9000</v>
+      </c>
+      <c r="D25" s="5">
+        <f>B25*C25</f>
+        <v>9000</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="16">
+        <f>SUM(D2,D8,D11,D16,D23)</f>
+        <v>165000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentacion/Partes.xlsx
+++ b/Documentacion/Partes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ulises\Desktop\CNC_plasma_DIMEC\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E32A49-200F-4593-8BC4-2280202CED8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314E387A-0D96-4189-BE07-35B28AFBF4DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1200,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="D9" s="12">
         <f>SUM(D10:D14)</f>
-        <v>20000</v>
+        <v>38000</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -1493,14 +1493,14 @@
         <v>68</v>
       </c>
       <c r="B14" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" s="5">
         <v>9000</v>
       </c>
       <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>9000</v>
+        <v>27000</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>35</v>
@@ -1917,6 +1917,9 @@
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -2336,7 +2339,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentacion/Partes.xlsx
+++ b/Documentacion/Partes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ulises\Desktop\CNC_plasma_DIMEC\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314E387A-0D96-4189-BE07-35B28AFBF4DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1F11B7-07FA-40C2-8B01-80282A5D7BA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mecanica" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="89">
   <si>
     <t>Item</t>
   </si>
@@ -99,12 +99,6 @@
     <t>Proveedor</t>
   </si>
   <si>
-    <t>Barra duraluminio xmm polea grande</t>
-  </si>
-  <si>
-    <t>Barra duraluminio xmm polea chica</t>
-  </si>
-  <si>
     <t>Ballscrew SFU1605 250mm eje Z</t>
   </si>
   <si>
@@ -295,6 +289,21 @@
   </si>
   <si>
     <t>Pernos Alameda/KIM</t>
+  </si>
+  <si>
+    <t>Barra duraluminio 75mm L150 polea grande</t>
+  </si>
+  <si>
+    <t>Barra duraluminio 25mm L100 polea chica</t>
+  </si>
+  <si>
+    <t>MECANICA</t>
+  </si>
+  <si>
+    <t>Barra rectangular para cremallera X</t>
+  </si>
+  <si>
+    <t>Cremallera eje X</t>
   </si>
 </sst>
 </file>
@@ -352,7 +361,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -401,12 +410,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -438,6 +458,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -719,15 +741,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A46EA4-DB89-4462-9DDF-383AE86E8485}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
@@ -767,14 +789,14 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5">
-        <f t="shared" ref="D2:D18" si="0">B2*C2</f>
+        <f t="shared" ref="D2:D19" si="0">B2*C2</f>
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -794,13 +816,13 @@
         <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -814,17 +836,25 @@
         <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -840,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="B7" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5">
@@ -860,16 +890,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -880,93 +910,89 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>10000</v>
-      </c>
-      <c r="D10" s="5">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
       </c>
       <c r="C11" s="5">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="B12" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" s="5">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>67</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5">
         <v>3</v>
@@ -979,175 +1005,190 @@
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="5">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="5">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="5">
         <v>5</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C15" s="5">
         <v>3000</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D15" s="5">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="4"/>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5">
-        <v>45000</v>
-      </c>
-      <c r="D16" s="5">
-        <f t="shared" si="0"/>
-        <v>45000</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B17" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17" s="5">
-        <v>2500</v>
+        <v>45000</v>
       </c>
       <c r="D17" s="5">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>45000</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B18" s="5">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2500</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="5">
         <v>1</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C19" s="5">
         <v>60000</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D19" s="5">
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="4" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="5">
-        <v>16</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="5">
-        <f>B20*C20</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="2"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="B21" s="5">
+        <v>16</v>
+      </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5">
         <f>B21*C21</f>
         <v>0</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F21" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="3"/>
+      <c r="A22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5">
+        <f>B22*C22</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
@@ -1168,29 +1209,38 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D27" s="8">
-        <f>SUM(D2:D25)</f>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D28" s="8">
+        <f>SUM(D2:D26)</f>
         <v>145000</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G14" r:id="rId1" xr:uid="{CCAD8BD5-5A75-4BA1-9E05-D57AC958FFAA}"/>
-    <hyperlink ref="G18" r:id="rId2" display="https://www.aliexpress.com/item/4001196665112.html?spm=a2g0o.productlist.0.0.3f4824ebITGCT2&amp;algo_pvid=82453855-675c-45f9-a819-926de80529dc&amp;algo_expid=82453855-675c-45f9-a819-926de80529dc-5&amp;btsid=0bb0623c16049730416098272e25e3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{76BFD02D-1CB4-42FF-AD3B-62A2E2D3C18E}"/>
-    <hyperlink ref="G19" r:id="rId3" display="https://es.aliexpress.com/item/32675566676.html?spm=a2g0o.productlist.0.0.74da77afyVnq27&amp;algo_pvid=50a8d203-12f3-4f40-a6b3-1c024d30a56d&amp;algo_expid=50a8d203-12f3-4f40-a6b3-1c024d30a56d-33&amp;btsid=0bb0624616049729361861771e9ebb&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{6686D927-5FCB-4D51-B406-A65D50020AE0}"/>
-    <hyperlink ref="G17" r:id="rId4" xr:uid="{A97663ED-B784-446F-B47E-E2C560070D88}"/>
-    <hyperlink ref="G16" r:id="rId5" display="https://es.aliexpress.com/item/32651221354.html?spm=a2g0o.productlist.0.0.160952abzxc3PQ&amp;algo_pvid=c680959c-b7ff-458b-9373-c0db5de8bb47&amp;algo_expid=c680959c-b7ff-458b-9373-c0db5de8bb47-10&amp;btsid=0b0a556216065092213491439e6072&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{84D0DA26-3A97-4AD7-8EF0-8C6C945133AF}"/>
-    <hyperlink ref="G12" r:id="rId6" xr:uid="{B1865955-4768-48A2-B358-340F58050C01}"/>
-    <hyperlink ref="G13" r:id="rId7" xr:uid="{A166AE50-65B7-4532-90A6-1422A484D93B}"/>
+    <hyperlink ref="G15" r:id="rId1" xr:uid="{CCAD8BD5-5A75-4BA1-9E05-D57AC958FFAA}"/>
+    <hyperlink ref="G19" r:id="rId2" display="https://www.aliexpress.com/item/4001196665112.html?spm=a2g0o.productlist.0.0.3f4824ebITGCT2&amp;algo_pvid=82453855-675c-45f9-a819-926de80529dc&amp;algo_expid=82453855-675c-45f9-a819-926de80529dc-5&amp;btsid=0bb0623c16049730416098272e25e3&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{76BFD02D-1CB4-42FF-AD3B-62A2E2D3C18E}"/>
+    <hyperlink ref="G20" r:id="rId3" display="https://es.aliexpress.com/item/32675566676.html?spm=a2g0o.productlist.0.0.74da77afyVnq27&amp;algo_pvid=50a8d203-12f3-4f40-a6b3-1c024d30a56d&amp;algo_expid=50a8d203-12f3-4f40-a6b3-1c024d30a56d-33&amp;btsid=0bb0624616049729361861771e9ebb&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{6686D927-5FCB-4D51-B406-A65D50020AE0}"/>
+    <hyperlink ref="G18" r:id="rId4" xr:uid="{A97663ED-B784-446F-B47E-E2C560070D88}"/>
+    <hyperlink ref="G17" r:id="rId5" display="https://es.aliexpress.com/item/32651221354.html?spm=a2g0o.productlist.0.0.160952abzxc3PQ&amp;algo_pvid=c680959c-b7ff-458b-9373-c0db5de8bb47&amp;algo_expid=c680959c-b7ff-458b-9373-c0db5de8bb47-10&amp;btsid=0b0a556216065092213491439e6072&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{84D0DA26-3A97-4AD7-8EF0-8C6C945133AF}"/>
+    <hyperlink ref="G13" r:id="rId6" xr:uid="{B1865955-4768-48A2-B358-340F58050C01}"/>
+    <hyperlink ref="G14" r:id="rId7" xr:uid="{A166AE50-65B7-4532-90A6-1422A484D93B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1200,7 +1250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -1256,15 +1306,15 @@
         <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
@@ -1280,15 +1330,15 @@
         <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5">
         <v>4</v>
@@ -1304,10 +1354,10 @@
         <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1328,10 +1378,10 @@
         <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1352,10 +1402,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1376,21 +1426,21 @@
         <v>14</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" s="12">
         <f>SUM(D10:D14)</f>
@@ -1402,7 +1452,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5">
         <v>5</v>
@@ -1415,16 +1465,16 @@
         <v>5000</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" s="5">
         <v>4</v>
@@ -1437,16 +1487,16 @@
         <v>2000</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" s="5">
         <v>4</v>
@@ -1459,16 +1509,16 @@
         <v>2000</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5">
         <v>4</v>
@@ -1481,16 +1531,16 @@
         <v>2000</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B14" s="5">
         <v>3</v>
@@ -1503,20 +1553,20 @@
         <v>27000</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D15" s="12">
         <f>SUM(D16:D17)</f>
@@ -1528,7 +1578,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
@@ -1541,16 +1591,16 @@
         <v>3000</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B17" s="6">
         <v>5</v>
@@ -1563,20 +1613,20 @@
         <v>3000</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D18" s="12">
         <f>SUM(D19:D22)</f>
@@ -1588,7 +1638,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B19" s="6">
         <v>20</v>
@@ -1601,16 +1651,16 @@
         <v>12000</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20" s="6">
         <v>20</v>
@@ -1623,16 +1673,16 @@
         <v>12000</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B21" s="6">
         <v>20</v>
@@ -1645,16 +1695,16 @@
         <v>12000</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5">
         <v>20</v>
@@ -1667,20 +1717,20 @@
         <v>12000</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="12">
         <f>SUM(D24:D27)</f>
@@ -1692,7 +1742,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B24" s="5">
         <v>25</v>
@@ -1705,18 +1755,18 @@
         <v>15000</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B25" s="5">
         <v>25</v>
@@ -1729,18 +1779,18 @@
         <v>15000</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B26" s="5">
         <v>10</v>
@@ -1753,16 +1803,16 @@
         <v>6000</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B27" s="5">
         <v>10</v>
@@ -1775,16 +1825,16 @@
         <v>6000</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B28" s="5">
         <v>3</v>
@@ -1797,10 +1847,10 @@
         <v>27000</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G28" s="2"/>
     </row>
@@ -1815,11 +1865,11 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D30" s="12">
         <f>SUM(D31:D34)</f>
@@ -1831,7 +1881,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B31" s="5">
         <v>1</v>
@@ -1844,7 +1894,7 @@
         <v>40000</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="2"/>
@@ -1864,10 +1914,10 @@
         <v>9000</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G32" s="4"/>
     </row>
@@ -2039,7 +2089,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2068,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
@@ -2092,15 +2142,15 @@
         <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5">
         <v>2</v>
@@ -2116,15 +2166,15 @@
         <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5">
         <v>4</v>
@@ -2140,10 +2190,10 @@
         <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2164,15 +2214,15 @@
         <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="5">
         <v>3</v>
@@ -2188,15 +2238,15 @@
         <v>14</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
@@ -2212,15 +2262,15 @@
         <v>14</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" s="5">
         <v>5</v>
@@ -2236,10 +2286,10 @@
         <v>14</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2260,10 +2310,10 @@
         <v>14</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2302,7 +2352,7 @@
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" s="15">
         <f>SUM(D2:D9)</f>
@@ -2336,16 +2386,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C2E9A8-69FD-4783-A235-3EA3CF357731}">
-  <dimension ref="A1:G27"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.140625" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2373,13 +2429,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D2" s="12">
         <f>SUM(D3:D7)</f>
@@ -2390,7 +2446,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="5">
         <v>5</v>
@@ -2403,15 +2459,15 @@
         <v>5000</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" s="5">
         <v>4</v>
@@ -2424,15 +2480,15 @@
         <v>2000</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" s="5">
         <v>4</v>
@@ -2445,15 +2501,15 @@
         <v>2000</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="5">
         <v>4</v>
@@ -2466,15 +2522,15 @@
         <v>2000</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
@@ -2488,16 +2544,16 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" s="12">
         <f>SUM(D9:D10)</f>
@@ -2508,7 +2564,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" s="5">
         <v>5</v>
@@ -2521,15 +2577,15 @@
         <v>3000</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" s="6">
         <v>5</v>
@@ -2542,19 +2598,19 @@
         <v>3000</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11" s="12">
         <f>SUM(D12:D15)</f>
@@ -2565,7 +2621,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" s="6">
         <v>20</v>
@@ -2578,15 +2634,15 @@
         <v>12000</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" s="6">
         <v>20</v>
@@ -2599,15 +2655,15 @@
         <v>12000</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14" s="6">
         <v>20</v>
@@ -2620,15 +2676,15 @@
         <v>12000</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B15" s="5">
         <v>20</v>
@@ -2641,19 +2697,19 @@
         <v>12000</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D16" s="12">
         <f>SUM(D17:D20)</f>
@@ -2664,7 +2720,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B17" s="5">
         <v>25</v>
@@ -2677,15 +2733,15 @@
         <v>15000</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18" s="5">
         <v>25</v>
@@ -2698,15 +2754,15 @@
         <v>15000</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B19" s="5">
         <v>10</v>
@@ -2719,15 +2775,15 @@
         <v>6000</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B20" s="5">
         <v>10</v>
@@ -2740,15 +2796,15 @@
         <v>6000</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B21" s="5">
         <v>3</v>
@@ -2761,10 +2817,10 @@
         <v>27000</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2777,11 +2833,11 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="12">
         <f>SUM(D24:D25)</f>
@@ -2792,7 +2848,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" s="5">
         <v>1</v>
@@ -2805,10 +2861,10 @@
         <v>40000</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2826,22 +2882,80 @@
         <v>9000</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>61</v>
-      </c>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="12">
+        <f>SUM(D27:D28)</f>
+        <v>15000</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="16">
-        <f>SUM(D2,D8,D11,D16,D23)</f>
-        <v>165000</v>
+      <c r="A27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" ref="D27:D28" si="1">B27*C27</f>
+        <v>10000</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="16">
+        <f>SUM(D2,D8,D11,D16,D23,D26)</f>
+        <v>180000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentacion/Partes.xlsx
+++ b/Documentacion/Partes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ulises\Desktop\CNC_plasma_DIMEC\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1F11B7-07FA-40C2-8B01-80282A5D7BA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E524EE4-0748-4979-8F55-211F85E4A714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mecanica" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="89">
   <si>
     <t>Item</t>
   </si>
@@ -177,9 +177,6 @@
     <t>https://es.aliexpress.com/item/32651221354.html?spm=a2g0o.productlist.0.0.160952abzxc3PQ&amp;algo_pvid=c680959c-b7ff-458b-9373-c0db5de8bb47&amp;algo_expid=c680959c-b7ff-458b-9373-c0db5de8bb47-10&amp;btsid=0b0a556216065092213491439e6072&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_</t>
   </si>
   <si>
-    <t>Cable AWG 14 ROJO</t>
-  </si>
-  <si>
     <t>Cable AWG 14 NEGRO</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>Cable AWG 14 triple</t>
   </si>
   <si>
-    <t>Cable AWG 14 VERDE/CAFE/AZUL</t>
-  </si>
-  <si>
     <t>INPUT 220V- input fuentes</t>
   </si>
   <si>
@@ -252,15 +246,9 @@
     <t>ROLLO 25m</t>
   </si>
   <si>
-    <t>Cable AWG 18 BLANCO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Regleta señales </t>
   </si>
   <si>
-    <t>Cable AWG 18 VERDE/AZUL</t>
-  </si>
-  <si>
     <t>EXTRAS</t>
   </si>
   <si>
@@ -304,6 +292,18 @@
   </si>
   <si>
     <t>Cremallera eje X</t>
+  </si>
+  <si>
+    <t>Cable AWG 14 BLANCO</t>
+  </si>
+  <si>
+    <t>Cable AWG 14 NARANJO</t>
+  </si>
+  <si>
+    <t>Cable AWG 18 CAFE</t>
+  </si>
+  <si>
+    <t>Cable AWG 18 VERDE</t>
   </si>
 </sst>
 </file>
@@ -796,7 +796,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -816,7 +816,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -836,13 +836,13 @@
         <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B5" s="5">
         <v>2</v>
@@ -853,7 +853,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -873,13 +873,13 @@
         <v>33</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -893,7 +893,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -913,7 +913,7 @@
         <v>33</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -933,7 +933,7 @@
         <v>33</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -948,7 +948,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
@@ -964,13 +964,13 @@
         <v>33</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
@@ -986,7 +986,7 @@
         <v>33</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -1008,10 +1008,10 @@
         <v>33</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1032,15 +1032,15 @@
         <v>33</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B15" s="5">
         <v>5</v>
@@ -1056,7 +1056,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>45</v>
@@ -1137,7 +1137,7 @@
         <v>33</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>35</v>
@@ -1170,7 +1170,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G21" s="2"/>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G22" s="2"/>
     </row>
@@ -1250,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,17 +1434,17 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9" s="12">
         <f>SUM(D10:D14)</f>
-        <v>38000</v>
+        <v>9040</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -1452,125 +1452,125 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5">
         <v>5</v>
       </c>
       <c r="C10" s="5">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="D10" s="5">
         <f>B10*C10</f>
-        <v>5000</v>
+        <v>4750</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B11" s="5">
         <v>4</v>
       </c>
       <c r="C11" s="5">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" ref="D11:D24" si="1">B11*C11</f>
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="5">
         <v>4</v>
       </c>
       <c r="C12" s="5">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="B13" s="5">
         <v>4</v>
       </c>
       <c r="C13" s="5">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" s="5">
-        <v>9000</v>
+        <v>690</v>
       </c>
       <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>27000</v>
+        <v>690</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D15" s="12">
         <f>SUM(D16:D17)</f>
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -1578,59 +1578,59 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
       </c>
       <c r="C16" s="5">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" s="6">
         <v>5</v>
       </c>
       <c r="C17" s="5">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="D17" s="5">
         <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>33</v>
+        <v>3750</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D18" s="12">
         <f>SUM(D19:D22)</f>
-        <v>48000</v>
+        <v>60000</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -1638,103 +1638,103 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" s="6">
         <v>20</v>
       </c>
       <c r="C19" s="5">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" si="1"/>
-        <v>12000</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>33</v>
+        <v>15000</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B20" s="6">
         <v>20</v>
       </c>
       <c r="C20" s="5">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="D20" s="5">
         <f t="shared" si="1"/>
-        <v>12000</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>33</v>
+        <v>15000</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B21" s="6">
         <v>20</v>
       </c>
       <c r="C21" s="5">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="D21" s="5">
         <f t="shared" si="1"/>
-        <v>12000</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>33</v>
+        <v>15000</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5">
         <v>20</v>
       </c>
       <c r="C22" s="5">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="D22" s="5">
         <f t="shared" si="1"/>
-        <v>12000</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>33</v>
+        <v>15000</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D23" s="12">
         <f>SUM(D24:D27)</f>
-        <v>42000</v>
+        <v>14000</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -1742,115 +1742,115 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B24" s="5">
         <v>25</v>
       </c>
       <c r="C24" s="5">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="D24" s="5">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B25" s="5">
         <v>25</v>
       </c>
       <c r="C25" s="5">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="D25" s="5">
         <f>B25*C25</f>
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B26" s="5">
         <v>10</v>
       </c>
       <c r="C26" s="5">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="D26" s="5">
         <f>B26*C26</f>
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B27" s="5">
         <v>10</v>
       </c>
       <c r="C27" s="5">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="D27" s="5">
         <f>B27*C27</f>
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B28" s="5">
         <v>3</v>
       </c>
       <c r="C28" s="5">
-        <v>9000</v>
+        <v>690</v>
       </c>
       <c r="D28" s="5">
         <f>B28*C28</f>
-        <v>27000</v>
+        <v>2070</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G28" s="2"/>
     </row>
@@ -1865,15 +1865,15 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D30" s="12">
         <f>SUM(D31:D34)</f>
-        <v>49000</v>
+        <v>41980</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
@@ -1907,17 +1907,17 @@
         <v>1</v>
       </c>
       <c r="C32" s="5">
-        <v>9000</v>
+        <v>1980</v>
       </c>
       <c r="D32" s="5">
         <f>B32*C32</f>
-        <v>9000</v>
+        <v>1980</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G32" s="4"/>
     </row>
@@ -2118,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
@@ -2262,7 +2262,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>45</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="5">
         <v>5</v>
@@ -2286,7 +2286,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>25</v>
@@ -2391,8 +2391,8 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2429,398 +2429,400 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D2" s="12">
         <f>SUM(D3:D7)</f>
-        <v>20000</v>
+        <v>9040</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="5">
         <v>5</v>
       </c>
       <c r="C3" s="5">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="D3" s="5">
         <f>B3*C3</f>
-        <v>5000</v>
+        <v>4750</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B4" s="5">
         <v>4</v>
       </c>
       <c r="C4" s="5">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D4" s="5">
         <f t="shared" ref="D4:D17" si="0">B4*C4</f>
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="5">
         <v>4</v>
       </c>
       <c r="C5" s="5">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="B6" s="5">
         <v>4</v>
       </c>
       <c r="C6" s="5">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
       </c>
       <c r="C7" s="5">
-        <v>9000</v>
+        <v>690</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>9000</v>
-      </c>
-      <c r="E7" s="5"/>
+        <v>690</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F7" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D8" s="12">
         <f>SUM(D9:D10)</f>
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5">
         <v>5</v>
       </c>
       <c r="C9" s="5">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10" s="6">
         <v>5</v>
       </c>
       <c r="C10" s="5">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>33</v>
+        <v>3750</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="12">
         <f>SUM(D12:D15)</f>
-        <v>48000</v>
+        <v>60000</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="6">
         <v>20</v>
       </c>
       <c r="C12" s="5">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="D12" s="5">
         <f t="shared" si="0"/>
-        <v>12000</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>33</v>
+        <v>15000</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" s="6">
         <v>20</v>
       </c>
       <c r="C13" s="5">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" si="0"/>
-        <v>12000</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>33</v>
+        <v>15000</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" s="6">
         <v>20</v>
       </c>
       <c r="C14" s="5">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="D14" s="5">
         <f t="shared" si="0"/>
-        <v>12000</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>33</v>
+        <v>15000</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" s="5">
         <v>20</v>
       </c>
       <c r="C15" s="5">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="D15" s="5">
         <f t="shared" si="0"/>
-        <v>12000</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>33</v>
+        <v>15000</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D16" s="12">
         <f>SUM(D17:D20)</f>
-        <v>42000</v>
+        <v>14000</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B17" s="5">
         <v>25</v>
       </c>
       <c r="C17" s="5">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="D17" s="5">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18" s="5">
         <v>25</v>
       </c>
       <c r="C18" s="5">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="D18" s="5">
         <f>B18*C18</f>
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B19" s="5">
         <v>10</v>
       </c>
       <c r="C19" s="5">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="D19" s="5">
         <f>B19*C19</f>
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B20" s="5">
         <v>10</v>
       </c>
       <c r="C20" s="5">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="D20" s="5">
         <f>B20*C20</f>
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B21" s="5">
         <v>3</v>
       </c>
       <c r="C21" s="5">
-        <v>9000</v>
+        <v>690</v>
       </c>
       <c r="D21" s="5">
         <f>B21*C21</f>
-        <v>27000</v>
+        <v>2070</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2833,15 +2835,15 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D23" s="12">
         <f>SUM(D24:D25)</f>
-        <v>49000</v>
+        <v>41980</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -2861,10 +2863,10 @@
         <v>40000</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2875,26 +2877,26 @@
         <v>1</v>
       </c>
       <c r="C25" s="5">
-        <v>9000</v>
+        <v>1980</v>
       </c>
       <c r="D25" s="5">
         <f>B25*C25</f>
-        <v>9000</v>
+        <v>1980</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D26" s="12">
         <f>SUM(D27:D28)</f>
@@ -2905,7 +2907,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B27" s="5">
         <v>1</v>
@@ -2921,12 +2923,12 @@
         <v>33</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B28" s="5">
         <v>1</v>
@@ -2942,16 +2944,16 @@
         <v>33</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D32" s="16">
         <f>SUM(D2,D8,D11,D16,D23,D26)</f>
-        <v>180000</v>
+        <v>147520</v>
       </c>
     </row>
   </sheetData>

--- a/Documentacion/Partes.xlsx
+++ b/Documentacion/Partes.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ulises\Desktop\CNC_plasma_DIMEC\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E524EE4-0748-4979-8F55-211F85E4A714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52B5DDB-F20B-4DB0-89E8-BE3806699B28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mecanica" sheetId="2" r:id="rId1"/>
     <sheet name="electronica" sheetId="1" r:id="rId2"/>
     <sheet name="compras1" sheetId="3" r:id="rId3"/>
     <sheet name="compras2" sheetId="4" r:id="rId4"/>
+    <sheet name="compras3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="95">
   <si>
     <t>Item</t>
   </si>
@@ -171,9 +172,6 @@
     <t>https://www.cimech3d.cl/producto/sensor-inductivo-lj12a3-4-z-bx-deteccion-4mm/</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
     <t>https://es.aliexpress.com/item/32651221354.html?spm=a2g0o.productlist.0.0.160952abzxc3PQ&amp;algo_pvid=c680959c-b7ff-458b-9373-c0db5de8bb47&amp;algo_expid=c680959c-b7ff-458b-9373-c0db5de8bb47-10&amp;btsid=0b0a556216065092213491439e6072&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_</t>
   </si>
   <si>
@@ -252,9 +250,6 @@
     <t>EXTRAS</t>
   </si>
   <si>
-    <t xml:space="preserve">TOTAL </t>
-  </si>
-  <si>
     <t>corte laser sinsay</t>
   </si>
   <si>
@@ -304,6 +299,30 @@
   </si>
   <si>
     <t>Cable AWG 18 VERDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAGADO </t>
+  </si>
+  <si>
+    <t>PAGADO</t>
+  </si>
+  <si>
+    <t>Barra duraluminio 75mm L150 mm polea grande</t>
+  </si>
+  <si>
+    <t>Barra duraluminio 25mm L100 mm  polea chica</t>
+  </si>
+  <si>
+    <t>Placa aluminio 150x200x6 mm</t>
+  </si>
+  <si>
+    <t>Placa aluminio 320x200x10 mm</t>
+  </si>
+  <si>
+    <t>Maquimetal?</t>
+  </si>
+  <si>
+    <t>Cubre cables (esa cosa que se enrolla)</t>
   </si>
 </sst>
 </file>
@@ -426,7 +445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -457,9 +476,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -743,7 +766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A46EA4-DB89-4462-9DDF-383AE86E8485}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
@@ -796,7 +819,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -816,7 +839,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -836,13 +859,13 @@
         <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B5" s="5">
         <v>2</v>
@@ -853,7 +876,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -873,13 +896,13 @@
         <v>33</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -893,7 +916,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -913,7 +936,7 @@
         <v>33</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -933,7 +956,7 @@
         <v>33</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -948,7 +971,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
@@ -964,13 +987,13 @@
         <v>33</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
@@ -986,7 +1009,7 @@
         <v>33</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -1008,10 +1031,10 @@
         <v>33</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1032,15 +1055,15 @@
         <v>33</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="5">
         <v>5</v>
@@ -1056,7 +1079,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>25</v>
@@ -1089,10 +1112,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1137,7 +1160,7 @@
         <v>33</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>35</v>
@@ -1170,7 +1193,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G21" s="2"/>
     </row>
@@ -1186,7 +1209,7 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G22" s="2"/>
     </row>
@@ -1250,7 +1273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -1434,13 +1457,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="12">
         <f>SUM(D10:D14)</f>
@@ -1452,7 +1475,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5">
         <v>5</v>
@@ -1468,13 +1491,13 @@
         <v>14</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B11" s="5">
         <v>4</v>
@@ -1490,13 +1513,13 @@
         <v>14</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="5">
         <v>4</v>
@@ -1512,13 +1535,13 @@
         <v>14</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B13" s="5">
         <v>4</v>
@@ -1534,13 +1557,13 @@
         <v>14</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="5">
         <v>1</v>
@@ -1556,17 +1579,17 @@
         <v>14</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="12">
         <f>SUM(D16:D17)</f>
@@ -1578,7 +1601,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
@@ -1594,13 +1617,13 @@
         <v>14</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="6">
         <v>5</v>
@@ -1616,17 +1639,17 @@
         <v>14</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="12">
         <f>SUM(D19:D22)</f>
@@ -1638,7 +1661,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="6">
         <v>20</v>
@@ -1654,13 +1677,13 @@
         <v>14</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="6">
         <v>20</v>
@@ -1676,13 +1699,13 @@
         <v>14</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="6">
         <v>20</v>
@@ -1698,13 +1721,13 @@
         <v>14</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="5">
         <v>20</v>
@@ -1720,17 +1743,17 @@
         <v>14</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="12">
         <f>SUM(D24:D27)</f>
@@ -1742,7 +1765,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="5">
         <v>25</v>
@@ -1758,15 +1781,15 @@
         <v>14</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="5">
         <v>25</v>
@@ -1782,15 +1805,15 @@
         <v>14</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B26" s="5">
         <v>10</v>
@@ -1806,13 +1829,13 @@
         <v>14</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B27" s="5">
         <v>10</v>
@@ -1828,13 +1851,13 @@
         <v>14</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" s="5">
         <v>3</v>
@@ -1850,7 +1873,7 @@
         <v>14</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G28" s="2"/>
     </row>
@@ -1865,11 +1888,11 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30" s="12">
         <f>SUM(D31:D34)</f>
@@ -1917,7 +1940,7 @@
         <v>14</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G32" s="4"/>
     </row>
@@ -2089,7 +2112,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2118,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
@@ -2262,15 +2285,15 @@
         <v>14</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="5">
         <v>5</v>
@@ -2286,7 +2309,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>25</v>
@@ -2352,7 +2375,7 @@
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="14" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="D19" s="15">
         <f>SUM(D2:D9)</f>
@@ -2392,7 +2415,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C7"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2429,13 +2452,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="12">
         <f>SUM(D3:D7)</f>
@@ -2446,7 +2469,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="5">
         <v>5</v>
@@ -2462,12 +2485,12 @@
         <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" s="5">
         <v>4</v>
@@ -2483,12 +2506,12 @@
         <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="5">
         <v>4</v>
@@ -2504,12 +2527,12 @@
         <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" s="5">
         <v>4</v>
@@ -2525,12 +2548,12 @@
         <v>14</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
@@ -2546,16 +2569,16 @@
         <v>14</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="12">
         <f>SUM(D9:D10)</f>
@@ -2566,7 +2589,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5">
         <v>5</v>
@@ -2582,12 +2605,12 @@
         <v>14</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="6">
         <v>5</v>
@@ -2603,16 +2626,16 @@
         <v>14</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="12">
         <f>SUM(D12:D15)</f>
@@ -2623,7 +2646,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="6">
         <v>20</v>
@@ -2639,12 +2662,12 @@
         <v>14</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="6">
         <v>20</v>
@@ -2660,12 +2683,12 @@
         <v>14</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="6">
         <v>20</v>
@@ -2681,12 +2704,12 @@
         <v>14</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="5">
         <v>20</v>
@@ -2702,16 +2725,16 @@
         <v>14</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="12">
         <f>SUM(D17:D20)</f>
@@ -2722,7 +2745,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="5">
         <v>25</v>
@@ -2738,12 +2761,12 @@
         <v>14</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="5">
         <v>25</v>
@@ -2759,12 +2782,12 @@
         <v>14</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B19" s="5">
         <v>10</v>
@@ -2780,12 +2803,12 @@
         <v>14</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B20" s="5">
         <v>10</v>
@@ -2801,12 +2824,12 @@
         <v>14</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="5">
         <v>3</v>
@@ -2822,7 +2845,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2835,15 +2858,15 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="12">
-        <f>SUM(D24:D25)</f>
-        <v>41980</v>
+        <f>SUM(D25)</f>
+        <v>1980</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -2863,10 +2886,10 @@
         <v>40000</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2887,27 +2910,24 @@
         <v>14</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="18"/>
+      <c r="A26" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="17"/>
       <c r="C26" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="12">
-        <f>SUM(D27:D28)</f>
-        <v>15000</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+        <v>64</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B27" s="5">
         <v>1</v>
@@ -2923,12 +2943,12 @@
         <v>33</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B28" s="5">
         <v>1</v>
@@ -2944,20 +2964,267 @@
         <v>33</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="16">
-        <f>SUM(D2,D8,D11,D16,D23,D26)</f>
-        <v>147520</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="18">
+        <v>94590</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABAA0F8-BA28-4AB3-826C-EDD729A1E14A}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="40.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="12">
+        <f>SUM(D3:D6)</f>
+        <v>36000</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="6">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5">
+        <v>750</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D6" si="0">B3*C3</f>
+        <v>9000</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="6">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5">
+        <v>750</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="6">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5">
+        <v>750</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="5">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5">
+        <v>750</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="20">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="12">
+        <f>SUM(D9:D10)</f>
+        <v>15000</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" ref="D9:D10" si="1">B9*C9</f>
+        <v>10000</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentacion/Partes.xlsx
+++ b/Documentacion/Partes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ulises\Desktop\CNC_plasma_DIMEC\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52B5DDB-F20B-4DB0-89E8-BE3806699B28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E444EA-3B0C-4E34-9C02-310CD3D3819C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mecanica" sheetId="2" r:id="rId1"/>
@@ -766,7 +766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A46EA4-DB89-4462-9DDF-383AE86E8485}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
@@ -1273,7 +1273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -2987,7 +2987,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="D2" s="12">
         <f>SUM(D3:D6)</f>
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -3040,14 +3040,14 @@
         <v>50</v>
       </c>
       <c r="B3" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5">
         <v>750</v>
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D6" si="0">B3*C3</f>
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>33</v>
@@ -3061,14 +3061,14 @@
         <v>51</v>
       </c>
       <c r="B4" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5">
         <v>750</v>
       </c>
       <c r="D4" s="5">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>33</v>
@@ -3082,14 +3082,14 @@
         <v>53</v>
       </c>
       <c r="B5" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5">
         <v>750</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>33</v>
@@ -3103,14 +3103,14 @@
         <v>54</v>
       </c>
       <c r="B6" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5">
         <v>750</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>33</v>
@@ -3124,7 +3124,7 @@
         <v>94</v>
       </c>
       <c r="B7" s="20">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
